--- a/biology/Biochimie/Cystine/Cystine.xlsx
+++ b/biology/Biochimie/Cystine/Cystine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La cystine est un composé organique formé par deux monomères de cystéine, un acide aminé protéinogène, liés par un pont disulfure, appelé dans ce cas pont cystine.
@@ -513,10 +525,12 @@
           <t>Découverte et rôle de la cystine dans l'organisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La cystine, présente à l'état naturel, a été découverte en 1810 par William Hyde Wollaston sous forme d'"oxyde cystique" dans des calculs vésicaux, et ce n'est que 74 ans plus tard que la cystéine monomère a été découverte. Cet acide aminé soufré se trouve également en forte concentration, lié de manière peptidique, dans les cellules du système immunitaire, de la peau et en particulier des cheveux.
-Ainsi, les kératines, les protéines fibreuses de la substance cornée, des cheveux, des soies ou des plumes, contiennent environ 11 % de L-cystine[3].Elle se forme par la formation de ponts disulfures entre les chaînes latérales de L-cystéine dans différents segments de protéines. 
+Ainsi, les kératines, les protéines fibreuses de la substance cornée, des cheveux, des soies ou des plumes, contiennent environ 11 % de L-cystine.Elle se forme par la formation de ponts disulfures entre les chaînes latérales de L-cystéine dans différents segments de protéines. 
 Les calculs rénaux sont constitués de L-cystine.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Rôle thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Associée à la vitamine B6 dans un médicament, la cystine est utilisée pour favoriser un développement normal des cheveux et des ongles[réf. nécessaire]. 
 </t>
